--- a/Operating_Systems/a3/results.xlsx
+++ b/Operating_Systems/a3/results.xlsx
@@ -19,12 +19,47 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">Queue Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trial 1 # of deadlocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trial 2 # of deadlocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC Used: i7 4970k </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 cores / 8 threads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trial 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trial 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -44,6 +79,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,8 +133,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -102,7 +159,855 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Deadlock (%) vs Queue Size (5 Consumer)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="3474361"/>
+        <c:axId val="80970207"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="3474361"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="80"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Queue Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80970207"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="80970207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Deadlock (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="3474361"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Consumer Count vs Avg Deadlock (%)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$33:$D$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$34:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$34:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1538465"/>
+        <c:axId val="8373043"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1538465"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Number of Consumers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8373043"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="8373043"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Average Deadlock (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1538465"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>153000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>711720</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>143640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="1778400"/>
+        <a:ext cx="5759640" cy="3241800"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>711720</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>78480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="7242480"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -110,17 +1015,327 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A2:E43"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8112244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">((B3+C3)/2)*20</f>
+        <v>100</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">((B4+C4)/2)*20</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">((B5+C5)/2)*20</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">((B6+C6)/2)*20</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">((B7+C7)/2)*20</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">((B8+C8)/2)*20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">((B9+C9)/2)*20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">((B10+C10)/2)*20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <f aca="false">((B34+C34)/2)*20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <f aca="false">((B35+C35)/2)*20</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <f aca="false">((B36+C36)/2)*20</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <f aca="false">((B37+C37)/2)*20</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" s="3" t="n">
+        <f aca="false">((B38+C38)/2)*20</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <f aca="false">((B39+C39)/2)*20</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <f aca="false">((B40+C40)/2)*20</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <f aca="false">((B41+C41)/2)*20</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D42" s="3" t="n">
+        <f aca="false">((B42+C42)/2)*20</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <f aca="false">((B43+C43)/2)*20</f>
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -128,5 +1343,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>